--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/chart_result.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/chart_result.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allard/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB083C92-9F37-7949-932B-FE2893FE5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F167E-47DB-4176-99B2-BD6FD8E4F94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{D1D06D48-80CB-4375-B195-0904EBD3758D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{D1D06D48-80CB-4375-B195-0904EBD3758D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Multiple Queries" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,8 +32,17 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Adrian Kuhn</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Employee Number:</t>
   </si>
@@ -44,6 +53,12 @@
     <t>Last name:</t>
   </si>
   <si>
+    <t>${employee.firstname}</t>
+  </si>
+  <si>
+    <t>${employee.lastname}</t>
+  </si>
+  <si>
     <t>List of customers</t>
   </si>
   <si>
@@ -56,16 +71,34 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>${customer.name}</t>
+  </si>
+  <si>
+    <t>${customer.num}</t>
+  </si>
+  <si>
+    <t>${customer.volume}</t>
+  </si>
+  <si>
     <t>TOTAL:</t>
   </si>
   <si>
+    <t>${parameters.employeeNumber}</t>
+  </si>
+  <si>
     <t>(You need an integer parameter in ReportServer with key=employeeNumber. You can then pass any employee number, e.g. 1216)</t>
   </si>
   <si>
     <t>(Version: 1.0.1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.1.0-6064) </t>
+  </si>
+  <si>
+    <t>(Note that in order to create the chart, we would need to know where the chart data is going appear to select the correct cell ranges for the axes.)</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>1216</t>
@@ -99,7 +132,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +148,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -164,11 +204,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -176,7 +216,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,7 +234,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -256,7 +296,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -272,7 +312,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Multiple Queries'!$C$7</c:f>
+              <c:f>Chart!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,53 +333,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Multiple Queries'!$A$8:$A$13</c:f>
+              <c:f>Chart!$A$8:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Auto-Moto Classics Inc.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FunGiftIdeas.com</c:v>
+                  <c:v>${customer.name}</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Online Diecast Creations Co.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Martas Replicas Co.</c:v>
+                  <c:v>TOTAL:</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Diecast Classics Inc.</c:v>
+                  <c:v>(You need an integer parameter in ReportServer with key=employeeNumber. You can then pass any employee number, e.g. 1216)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gifts4AllAges.com</c:v>
+                  <c:v>(Version: 1.0.1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Multiple Queries'!$C$8:$C$13</c:f>
+              <c:f>Chart!$C$8:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21554.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88627.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116449.29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90545.37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>104358.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84340.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,7 +395,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Multiple Queries'!$B$7:$B$8</c15:sqref>
+                          <c15:sqref>Chart!$B$7:$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -383,7 +405,7 @@
                         <c:v>Customer Number</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>198</c:v>
+                        <c:v>${customer.num}</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -403,29 +425,23 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Multiple Queries'!$A$8:$A$13</c15:sqref>
+                          <c15:sqref>Chart!$A$8:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Auto-Moto Classics Inc.</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>FunGiftIdeas.com</c:v>
+                        <c:v>${customer.name}</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Online Diecast Creations Co.</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Martas Replicas Co.</c:v>
+                        <c:v>TOTAL:</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Diecast Classics Inc.</c:v>
+                        <c:v>(You need an integer parameter in ReportServer with key=employeeNumber. You can then pass any employee number, e.g. 1216)</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>Gifts4AllAges.com</c:v>
+                        <c:v>(Version: 1.0.1)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -435,28 +451,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Multiple Queries'!$B$9:$B$13</c15:sqref>
+                          <c15:sqref>Chart!$B$9:$B$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>462</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>363</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>286</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>157</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>362</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -473,10 +474,10 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Multiple Queries'!$C$7:$C$8</c15:sqref>
+                          <c15:sqref>Chart!$C$7:$C$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -486,7 +487,7 @@
                         <c:v>Volume</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>21554.26</c:v>
+                        <c:v>${customer.volume}</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -503,67 +504,49 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Multiple Queries'!$A$8:$A$13</c15:sqref>
+                          <c15:sqref>Chart!$A$8:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Auto-Moto Classics Inc.</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>FunGiftIdeas.com</c:v>
+                        <c:v>${customer.name}</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Online Diecast Creations Co.</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Martas Replicas Co.</c:v>
+                        <c:v>TOTAL:</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Diecast Classics Inc.</c:v>
+                        <c:v>(You need an integer parameter in ReportServer with key=employeeNumber. You can then pass any employee number, e.g. 1216)</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>Gifts4AllAges.com</c:v>
+                        <c:v>(Version: 1.0.1)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Multiple Queries'!$C$9:$C$13</c15:sqref>
+                          <c15:sqref>Chart!$C$9:$C$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>88627.49</c:v>
-                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>116449.29</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>90545.37</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>104358.69</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>84340.32</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E6A4-47F7-BC2A-82BC927D7BE8}"/>
                   </c:ext>
@@ -614,7 +597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957054640"/>
@@ -673,7 +656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="962381472"/>
@@ -721,7 +704,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1317,7 +1300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1612,179 +1595,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C838B6D9-6BCB-41EF-9B8B-741AEE66B68F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C838B6D9-6BCB-41EF-9B8B-741AEE66B68F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="27.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>198</v>
-      </c>
-      <c r="C8" s="1">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>21554.26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>462</v>
-      </c>
-      <c r="C9" s="1">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>88627.49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>363</v>
-      </c>
-      <c r="C10" s="1">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>116449.29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>286</v>
-      </c>
-      <c r="C11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>90545.37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>157</v>
-      </c>
-      <c r="C12" s="1">
+        <v>26</v>
+      </c>
+      <c r="B12" t="n" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="C12" t="n" s="1">
         <v>104358.69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>362</v>
-      </c>
-      <c r="C13" s="1">
+        <v>27</v>
+      </c>
+      <c r="B13" t="n" s="1">
+        <v>362.0</v>
+      </c>
+      <c r="C13" t="n" s="1">
         <v>84340.32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A15" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="C15" t="n" s="6">
         <f>SUM(C8:C13)</f>
-        <v>505875.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="A19" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>